--- a/Schedule/Schedule_ZEUS.xlsx
+++ b/Schedule/Schedule_ZEUS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MixiComputer\Desktop\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zeus-tmp\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F28B5C-43EE-41B6-BFB4-195B3BA6C67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A498349D-6D80-413C-93AC-316713F6A0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEF8FDA0-D3F4-430A-B385-D7F68C23580C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEF8FDA0-D3F4-430A-B385-D7F68C23580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,10 +187,10 @@
     <t>Tổng thời gian phát triển (giờ):</t>
   </si>
   <si>
-    <t>Thời gian dịch tài liệu:(dịch tìa liệu mô tả, testcase, QA) = 20% thời gian phát triển (giờ):</t>
-  </si>
-  <si>
     <t>Tổng thời gian(giờ):</t>
+  </si>
+  <si>
+    <t>Thời gian dịch tài liệu:(dịch tài liệu mô tả, testcase, QA) = 20% thời gian phát triển (giờ):</t>
   </si>
 </sst>
 </file>
@@ -280,15 +280,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +662,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -691,8 +691,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
@@ -716,8 +716,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
@@ -741,10 +741,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -770,8 +770,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
@@ -795,8 +795,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
@@ -820,8 +820,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
@@ -845,8 +845,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
@@ -870,8 +870,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
@@ -895,8 +895,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
@@ -920,28 +920,28 @@
       <c r="E14" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <f>SUM(F2:F11)</f>
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
         <f>C17*0.2</f>
         <v>24.400000000000002</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4">
         <f>SUM(C17:C18)</f>
         <v>146.4</v>
       </c>
